--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gdnf-Ret.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gdnf-Ret.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,10 +534,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.995314333333334</v>
+        <v>0.7999296666666668</v>
       </c>
       <c r="H2">
-        <v>5.985943000000001</v>
+        <v>2.399789</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.632885</v>
+        <v>3.21276</v>
       </c>
       <c r="N2">
-        <v>10.898655</v>
+        <v>9.63828</v>
       </c>
       <c r="O2">
-        <v>0.437284956640454</v>
+        <v>0.3952107490920524</v>
       </c>
       <c r="P2">
-        <v>0.4372849566404539</v>
+        <v>0.3952107490920524</v>
       </c>
       <c r="Q2">
-        <v>7.248747511851668</v>
+        <v>2.56998203588</v>
       </c>
       <c r="R2">
-        <v>65.23872760666502</v>
+        <v>23.12983832292</v>
       </c>
       <c r="S2">
-        <v>0.437284956640454</v>
+        <v>0.3952107490920524</v>
       </c>
       <c r="T2">
-        <v>0.4372849566404539</v>
+        <v>0.3952107490920524</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,10 +596,10 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.995314333333334</v>
+        <v>0.7999296666666668</v>
       </c>
       <c r="H3">
-        <v>5.985943000000001</v>
+        <v>2.399789</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +620,22 @@
         <v>11.654988</v>
       </c>
       <c r="O3">
-        <v>0.4676311822169809</v>
+        <v>0.4779044122124365</v>
       </c>
       <c r="P3">
-        <v>0.4676311822169809</v>
+        <v>0.4779044122124365</v>
       </c>
       <c r="Q3">
-        <v>7.751788203742668</v>
+        <v>3.107723555281333</v>
       </c>
       <c r="R3">
-        <v>69.76609383368401</v>
+        <v>27.969511997532</v>
       </c>
       <c r="S3">
-        <v>0.4676311822169809</v>
+        <v>0.4779044122124365</v>
       </c>
       <c r="T3">
-        <v>0.4676311822169809</v>
+        <v>0.4779044122124365</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +649,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,10 +658,10 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.995314333333334</v>
+        <v>0.7999296666666668</v>
       </c>
       <c r="H4">
-        <v>5.985943000000001</v>
+        <v>2.399789</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -673,96 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.004340666666666667</v>
+        <v>1.031476333333333</v>
       </c>
       <c r="N4">
-        <v>0.013022</v>
+        <v>3.094429</v>
       </c>
       <c r="O4">
-        <v>0.0005224795816889323</v>
+        <v>0.1268848386955111</v>
       </c>
       <c r="P4">
-        <v>0.0005224795816889323</v>
+        <v>0.1268848386955111</v>
       </c>
       <c r="Q4">
-        <v>0.008660994416222225</v>
+        <v>0.8251085194978891</v>
       </c>
       <c r="R4">
-        <v>0.07794894974600002</v>
+        <v>7.425976675481001</v>
       </c>
       <c r="S4">
-        <v>0.0005224795816889323</v>
+        <v>0.1268848386955111</v>
       </c>
       <c r="T4">
-        <v>0.0005224795816889323</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.995314333333334</v>
-      </c>
-      <c r="H5">
-        <v>5.985943000000001</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.7855989999999999</v>
-      </c>
-      <c r="N5">
-        <v>2.356797</v>
-      </c>
-      <c r="O5">
-        <v>0.09456138156087625</v>
-      </c>
-      <c r="P5">
-        <v>0.09456138156087625</v>
-      </c>
-      <c r="Q5">
-        <v>1.567516944952333</v>
-      </c>
-      <c r="R5">
-        <v>14.107652504571</v>
-      </c>
-      <c r="S5">
-        <v>0.09456138156087625</v>
-      </c>
-      <c r="T5">
-        <v>0.09456138156087625</v>
+        <v>0.1268848386955111</v>
       </c>
     </row>
   </sheetData>
